--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Module1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="RunManager" sheetId="4" r:id="rId4"/>
+    <sheet name="DATA" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>firstName</t>
   </si>
@@ -91,9 +92,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -115,7 +113,37 @@
     <t>To check whether this is executed or not</t>
   </si>
   <si>
-    <t>4</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>navin</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>subs</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -573,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -604,36 +632,158 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>26</v>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>firstName</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +664,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>24</v>
@@ -671,20 +680,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -692,16 +701,19 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -709,33 +721,39 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -743,16 +761,19 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -760,16 +781,19 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -777,12 +801,15 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -741,7 +741,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -798,7 +798,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>

--- a/src/test/resources/data/Data.xlsx
+++ b/src/test/resources/data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Module1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,7 +738,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
